--- a/T19C-Back-End/bloco-21-Funcoes-SQL-JOINs-e-Normalizacao/dia-03-transformando-ideias-em-um-modelo-de-banco-de-dados/exercice-02.xlsx
+++ b/T19C-Back-End/bloco-21-Funcoes-SQL-JOINs-e-Normalizacao/dia-03-transformando-ideias-em-um-modelo-de-banco-de-dados/exercice-02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t xml:space="preserve">LOCADOR</t>
   </si>
@@ -37,6 +37,18 @@
     <t xml:space="preserve">tipo</t>
   </si>
   <si>
+    <t xml:space="preserve">logradouro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doren</t>
   </si>
   <si>
@@ -46,6 +58,15 @@
     <t xml:space="preserve">casa</t>
   </si>
   <si>
+    <t xml:space="preserve">Rua Norte Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belo Horizonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ramon</t>
   </si>
   <si>
@@ -55,55 +76,31 @@
     <t xml:space="preserve">apartamento</t>
   </si>
   <si>
+    <t xml:space="preserve">Av Rodrigues Ramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vanderson</t>
   </si>
   <si>
     <t xml:space="preserve">Judis</t>
   </si>
   <si>
+    <t xml:space="preserve">Rua Brusque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipatinga</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carolina</t>
   </si>
   <si>
     <t xml:space="preserve">Rude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENDEREÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logradouro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rua Norte Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belo Horizonte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Av Rodrigues Ramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rua Brusque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipatinga</t>
   </si>
   <si>
     <t xml:space="preserve">Av Atlantica</t>
@@ -164,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,12 +197,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -290,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,31 +294,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -412,20 +395,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="27.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="27.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.51"/>
@@ -470,10 +456,10 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -498,10 +484,18 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -518,18 +512,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
@@ -541,22 +543,30 @@
       <c r="R5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>950</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
@@ -573,18 +583,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -596,22 +614,30 @@
       <c r="R7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>254</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
@@ -630,136 +656,160 @@
       <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v>950</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
+      <c r="A15" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>254</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
+      <c r="A18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
+      <c r="A19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
+      <c r="A21" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -768,14 +818,14 @@
       <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
+      <c r="A22" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -784,14 +834,14 @@
       <c r="H22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
+      <c r="A23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
@@ -800,159 +850,38 @@
       <c r="H23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
       <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
       <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
       <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
       <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B29" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
       <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="0"/>
-    </row>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:C20"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511805555555555" footer="0.511805555555555"/>
